--- a/exam_seating_planner/Exam_Seat_plan/Paramount School_Paramount School Hall_2024-06-13/Seat_Planing_for_Paramount School_Paramount School Hall_Morning_06-13-2024.xlsx
+++ b/exam_seating_planner/Exam_Seat_plan/Paramount School_Paramount School Hall_2024-06-13/Seat_Planing_for_Paramount School_Paramount School Hall_Morning_06-13-2024.xlsx
@@ -511,7 +511,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total candidate</t>
+          <t>Total Candidate</t>
         </is>
       </c>
       <c r="C10" t="n">
